--- a/Diffupar/ASDWP/obj/Release/AspnetCompileMerge/TempBuildDir/Templates/Template Plan de Cuentas Complemento.xlsx
+++ b/Diffupar/ASDWP/obj/Release/AspnetCompileMerge/TempBuildDir/Templates/Template Plan de Cuentas Complemento.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://diffuparargentina-my.sharepoint.com/personal/pons_diffupar_com/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fuentes\Diffupar\Source\Diffupar\ASDWP\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1611B068-BE00-4D6C-9BB2-8E7973522D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A56367-5303-4E21-BC5B-9045E5BF5ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan de Cuentas" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan de Cuentas'!$A$1:$K$1</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -52,12 +49,6 @@
     <t>NivelCuenta</t>
   </si>
   <si>
-    <t>Fecha_Creacion</t>
-  </si>
-  <si>
-    <t>Fecha_Modificacion</t>
-  </si>
-  <si>
     <t>Resultado</t>
   </si>
   <si>
@@ -104,12 +95,18 @@
   </si>
   <si>
     <t>Otros</t>
+  </si>
+  <si>
+    <t>FechaCreacion</t>
+  </si>
+  <si>
+    <t>FechaModificacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,9 +646,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -689,7 +686,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -795,7 +792,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -937,37 +934,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5791726B-9319-4DDB-B4EC-5898129EA363}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -995,37 +981,37 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1234567891</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -1037,30 +1023,30 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1234567892</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -1072,30 +1058,30 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1234567893</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -1107,30 +1093,30 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4106020001</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1142,30 +1128,30 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>99997</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <v>5</v>
@@ -1177,30 +1163,30 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>99999</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -1212,30 +1198,30 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>99990</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -1247,30 +1233,30 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>99993</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -1282,30 +1268,30 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>99994</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -1317,30 +1303,30 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>99995</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -1352,30 +1338,30 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>99996</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -1387,30 +1373,30 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>99998</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>5</v>
@@ -1423,7 +1409,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>